--- a/ProjectUR/Content/Data/Excel/PlayerInfo.xlsx
+++ b/ProjectUR/Content/Data/Excel/PlayerInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnrealProject\ProjectUR\ProjectUR\Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnrealProject\ProjectUR\ProjectUR\Content\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C066B6-FEB4-4DE2-A655-3CEF0ED57012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF276B1-51B2-4540-87BE-009EC8CB8D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F66A85E0-D697-4394-855F-76FCD78419AA}"/>
+    <workbookView xWindow="1560" yWindow="4875" windowWidth="28800" windowHeight="15345" xr2:uid="{F66A85E0-D697-4394-855F-76FCD78419AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,14 @@
   </si>
   <si>
     <t>물이 첨벙첨벙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,55 +441,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA5F9B4-1B09-4EBA-9D42-39B52DF75D7A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
